--- a/data_report.xlsx
+++ b/data_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,21 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-16 04:49:51 UTC</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>528</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_report.xlsx
+++ b/data_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,21 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-16 04:51:43 UTC</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>762</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_report.xlsx
+++ b/data_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,21 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-16 17:09:05 UTC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>857</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_report.xlsx
+++ b/data_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,21 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:08:34 UTC</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>543</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
